--- a/xml/faxing.xlsx
+++ b/xml/faxing.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="34">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,126 +46,118 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>toufaqian_leno2-0,toufaqian_leno2-1,toufaqian_leno2-2,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>发型1</t>
   </si>
   <si>
-    <t>toufaqian_leno1-0,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>toufaqian_leno3-0,toufaqian_leno3-1,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>toufaqian_leno4,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>toufaqian_qingmu2,toufahou_qingmu1,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>toufaqian_qingmu1,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>toufaqian_qingmu3,toufahou_qingmu2,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>toufaqian_qingmu4,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>toufaqian_an1,toufahou_an1,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>toufaqian_biaoge1,toufahou_biaoge1,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>toufaqian_fanzi1,toufahou_fanzi1,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>toufaqian_fanzi2-0,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>toufaqian_huangbaba1,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>toufaqian_jiguan1,toufahou_jiguan1,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>toufaqian_jiguan2,toufahou_jiguan2,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>toufaqian_leno10,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>toufaqian_leno5,toufahou_leno2,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>toufaqian_leno6,toufahou_leno3,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>toufaqian_leno7,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>toufaqian_leno8,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>toufaqian_leno9,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>toufaqian_luqi1,toufahou_luqi1,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>toufaqian_meilu1,toufahou_meilu1,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>toufaqian_ningzhu1,toufahou_ningzhu1,</t>
+    <t>["toufaqian_leno2-0","toufaqian_leno2-1","toufaqian_leno2-2"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["toufaqian_leno3-0","toufaqian_leno3-1"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["toufaqian_leno1-0"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["toufaqian_leno4"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["toufaqian_qingmu1"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["toufaqian_qingmu4"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["toufaqian_fanzi2-0"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["toufaqian_huangbaba1"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["toufaqian_leno10"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["toufaqian_leno7"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["toufaqian_leno8"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["toufaqian_leno9"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["toufaqian_qingmu2","toufahou_qingmu1"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["toufaqian_qingmu3","toufahou_qingmu2"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["toufaqian_an1","toufahou_an1"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["toufaqian_biaoge1","toufahou_biaoge1"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["toufaqian_fanzi1","toufahou_fanzi1"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["toufaqian_jiguan1","toufahou_jiguan1"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["toufaqian_jiguan2","toufahou_jiguan2"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["toufaqian_leno5","toufahou_leno2"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["toufaqian_leno6","toufahou_leno3"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["toufaqian_luqi1","toufahou_luqi1"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["toufaqian_meilu1","toufahou_meilu1"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["toufaqian_ningzhu1","toufahou_ningzhu1"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["toufaqian","toufaqian","toufaqian"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["toufaqian","toufaqian"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["toufaqian"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["toufaqian","toufahou"]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -574,7 +566,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -607,10 +599,10 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -621,10 +613,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1">
@@ -632,13 +624,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -646,13 +638,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -660,13 +652,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -674,13 +666,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -688,13 +680,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -702,13 +694,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -716,13 +708,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -730,13 +722,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -744,13 +736,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -758,13 +750,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -772,13 +764,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -786,13 +778,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -800,13 +792,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -814,13 +806,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -828,13 +820,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -842,13 +834,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -856,13 +848,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -870,13 +862,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -884,13 +876,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D22" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -898,10 +890,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
         <v>33</v>
@@ -912,10 +904,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>28</v>
+      </c>
+      <c r="D24" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -923,10 +918,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>29</v>
+      </c>
+      <c r="D25" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/xml/faxing.xlsx
+++ b/xml/faxing.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="56">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -158,6 +158,94 @@
   </si>
   <si>
     <t>["toufaqian","toufahou"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["toufaqian_ningzhu2"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["toufaqian"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["toufaqian_ningzhu3"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["toufaqian_ningzhu4","toufahou_ningzhu2"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["toufaqian_ningzhu5"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["toufaqian_ningzhu6","toufahou_ningzhu3"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["toufaqian_ningzhu7","toufahou_ningzhu4"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["toufaqian_ningzhu8-0","toufaqian_ningzhu8-1","toufahou_ningzhu5"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["toufaqian","toufahou"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["toufaqian","toufaqian","toufahou"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["toufaqian_qingmu5"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["toufaqian_qingmu8"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["toufaqian_qingmu6","toufahou_qingmu4"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["toufaqian_qingmu7"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["toufaqian_qingmu10","toufahou_qingmu5"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["toufaqian_qingmu11","toufahou_qingmu6"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["toufaqian_qingmu12"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["toufaqian_qingmu9"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["toufaqian_shasha1","toufahou_shasha1-0","toufahou_shasha1-1"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["toufaqian","toufahou","toufahou"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["toufaqian_sw1"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["toufaqian_wanjie1"]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -204,8 +292,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -258,8 +349,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:D25" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:D25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:D43" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:D43"/>
   <tableColumns count="4">
     <tableColumn id="1" uniqueName="id" name="id">
       <xmlColumnPr mapId="1" xpath="/boxs/box/@id" xmlDataType="integer"/>
@@ -563,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -925,6 +1016,258 @@
       </c>
       <c r="D25" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
